--- a/Evaluation.xlsx
+++ b/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmin\FDS\data analysis lending club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3B0530-D902-46CA-BA60-D3736F5B2DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2DB15D-8F52-45AF-890A-A1779607CE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -892,13 +892,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,22 +956,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -951,68 +992,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1320,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="86" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="86" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1358,7 +1354,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="11">
@@ -1384,7 +1380,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="11">
         <v>0.4</v>
       </c>
@@ -1406,19 +1402,19 @@
       <c r="H3" s="9">
         <v>0.75</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="20"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="14">
         <v>0.5</v>
       </c>
@@ -1466,7 +1462,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="12">
         <v>0.6</v>
       </c>
@@ -1488,25 +1484,25 @@
       <c r="H5" s="10">
         <v>0.71</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="Q5">
         <v>0.95</v>
       </c>
-      <c r="R5" s="41">
+      <c r="R5" s="2">
         <v>0.9</v>
       </c>
-      <c r="S5" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="T5" s="40">
+      <c r="S5">
+        <v>0.93</v>
+      </c>
+      <c r="T5">
         <v>0.66</v>
       </c>
-      <c r="U5" s="41">
+      <c r="U5" s="2">
         <v>0.82</v>
       </c>
       <c r="V5" s="9">
@@ -1514,7 +1510,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="13">
@@ -1538,25 +1534,25 @@
       <c r="H6" s="8">
         <v>0.69</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="68" t="s">
+      <c r="P6" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="40">
+      <c r="Q6">
         <v>0.95</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="2">
         <v>0.91</v>
       </c>
-      <c r="S6" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="T6" s="40">
+      <c r="S6">
+        <v>0.93</v>
+      </c>
+      <c r="T6">
         <v>0.68</v>
       </c>
-      <c r="U6" s="41">
+      <c r="U6" s="2">
         <v>0.8</v>
       </c>
       <c r="V6" s="9">
@@ -1564,7 +1560,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="20"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="11">
         <v>0.4</v>
       </c>
@@ -1586,25 +1582,25 @@
       <c r="H7" s="9">
         <v>0.71</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7">
         <v>0.95</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="2">
         <v>0.9</v>
       </c>
-      <c r="S7" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="T7" s="40">
+      <c r="S7">
+        <v>0.93</v>
+      </c>
+      <c r="T7">
         <v>0.67</v>
       </c>
-      <c r="U7" s="41">
+      <c r="U7" s="2">
         <v>0.82</v>
       </c>
       <c r="V7" s="9">
@@ -1612,7 +1608,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="20"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="14">
         <v>0.5</v>
       </c>
@@ -1634,25 +1630,25 @@
       <c r="H8" s="9">
         <v>0.73</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="68" t="s">
+      <c r="P8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="29">
         <v>0.96</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="2">
         <v>0.9</v>
       </c>
-      <c r="S8" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="T8" s="40">
+      <c r="S8">
+        <v>0.93</v>
+      </c>
+      <c r="T8">
         <v>0.66</v>
       </c>
-      <c r="U8" s="41">
+      <c r="U8" s="2">
         <v>0.84</v>
       </c>
       <c r="V8" s="9">
@@ -1660,7 +1656,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="21"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="12">
         <v>0.6</v>
       </c>
@@ -1682,67 +1678,62 @@
       <c r="H9" s="10">
         <v>0.75</v>
       </c>
-      <c r="O9" s="64" t="s">
+      <c r="O9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="73" t="s">
+      <c r="P9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="65">
+      <c r="Q9" s="42">
         <v>0.96</v>
       </c>
-      <c r="R9" s="66">
+      <c r="R9" s="43">
         <v>0.9</v>
       </c>
-      <c r="S9" s="65">
-        <v>0.93</v>
-      </c>
-      <c r="T9" s="65">
+      <c r="S9" s="42">
+        <v>0.93</v>
+      </c>
+      <c r="T9" s="42">
         <v>0.67</v>
       </c>
-      <c r="U9" s="66">
+      <c r="U9" s="43">
         <v>0.83</v>
       </c>
-      <c r="V9" s="67">
+      <c r="V9" s="44">
         <v>0.74</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="18"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
       <c r="H10" s="9"/>
-      <c r="O10" s="64" t="s">
+      <c r="O10" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="73" t="s">
+      <c r="P10" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="70">
+      <c r="Q10" s="47">
         <v>0.96</v>
       </c>
-      <c r="R10" s="71">
+      <c r="R10" s="48">
         <v>0.89</v>
       </c>
-      <c r="S10" s="70">
+      <c r="S10" s="47">
         <v>0.92</v>
       </c>
-      <c r="T10" s="70">
+      <c r="T10" s="47">
         <v>0.65</v>
       </c>
-      <c r="U10" s="71">
+      <c r="U10" s="48">
         <v>0.84</v>
       </c>
-      <c r="V10" s="72">
+      <c r="V10" s="49">
         <v>0.74</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="54" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="13">
@@ -1766,25 +1757,25 @@
       <c r="H11" s="8">
         <v>0.73</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="48" t="s">
+      <c r="P11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="40">
+      <c r="Q11">
         <v>0.94</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="2">
         <v>0.94</v>
       </c>
-      <c r="S11" s="40">
+      <c r="S11">
         <v>0.94</v>
       </c>
-      <c r="T11" s="40">
+      <c r="T11">
         <v>0.74</v>
       </c>
-      <c r="U11" s="41">
+      <c r="U11" s="2">
         <v>0.74</v>
       </c>
       <c r="V11" s="9">
@@ -1792,33 +1783,28 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="20"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
       <c r="H12" s="9"/>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="68" t="s">
+      <c r="P12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q12">
         <v>0.97</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="2">
         <v>0.86</v>
       </c>
-      <c r="S12" s="50">
+      <c r="S12">
         <v>0.91</v>
       </c>
-      <c r="T12" s="50">
+      <c r="T12">
         <v>0.61</v>
       </c>
-      <c r="U12" s="41">
+      <c r="U12" s="2">
         <v>0.89</v>
       </c>
       <c r="V12" s="9">
@@ -1826,41 +1812,36 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="20"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
       <c r="H13" s="9"/>
-      <c r="O13" s="64" t="s">
+      <c r="O13" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="69" t="s">
+      <c r="P13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="Q13" s="65">
+      <c r="Q13" s="42">
         <v>0.96</v>
       </c>
-      <c r="R13" s="66">
+      <c r="R13" s="43">
         <v>0.89</v>
       </c>
-      <c r="S13" s="65">
+      <c r="S13" s="42">
         <v>0.92</v>
       </c>
-      <c r="T13" s="65">
+      <c r="T13" s="42">
         <v>0.65</v>
       </c>
-      <c r="U13" s="66">
+      <c r="U13" s="43">
         <v>0.85</v>
       </c>
-      <c r="V13" s="67">
+      <c r="V13" s="44">
         <v>0.73</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="20"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="11">
         <v>0.4</v>
       </c>
@@ -1882,33 +1863,33 @@
       <c r="H14" s="9">
         <v>0.74</v>
       </c>
-      <c r="O14" s="64" t="s">
+      <c r="O14" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="69" t="s">
+      <c r="P14" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="65">
+      <c r="Q14" s="42">
         <v>0.94</v>
       </c>
-      <c r="R14" s="66">
-        <v>0.93</v>
-      </c>
-      <c r="S14" s="65">
+      <c r="R14" s="43">
+        <v>0.93</v>
+      </c>
+      <c r="S14" s="42">
         <v>0.94</v>
       </c>
-      <c r="T14" s="65">
+      <c r="T14" s="42">
         <v>0.73</v>
       </c>
-      <c r="U14" s="66">
+      <c r="U14" s="43">
         <v>0.76</v>
       </c>
-      <c r="V14" s="67">
+      <c r="V14" s="44">
         <v>0.74</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="20"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="14">
         <v>0.5</v>
       </c>
@@ -1930,25 +1911,25 @@
       <c r="H15" s="9">
         <v>0.75</v>
       </c>
-      <c r="O15" s="42" t="s">
+      <c r="O15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="48" t="s">
+      <c r="P15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15">
         <v>0.95</v>
       </c>
-      <c r="R15" s="41">
+      <c r="R15" s="2">
         <v>0.91</v>
       </c>
-      <c r="S15" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="T15" s="40">
+      <c r="S15">
+        <v>0.93</v>
+      </c>
+      <c r="T15">
         <v>0.69</v>
       </c>
-      <c r="U15" s="41">
+      <c r="U15" s="2">
         <v>0.81</v>
       </c>
       <c r="V15" s="9">
@@ -1956,7 +1937,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="21"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="12">
         <v>0.6</v>
       </c>
@@ -1978,25 +1959,25 @@
       <c r="H16" s="10">
         <v>0.74</v>
       </c>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="68" t="s">
+      <c r="P16" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="52">
+      <c r="Q16" s="29">
         <v>0.96</v>
       </c>
-      <c r="R16" s="41">
+      <c r="R16" s="2">
         <v>0.9</v>
       </c>
-      <c r="S16" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="T16" s="40">
+      <c r="S16">
+        <v>0.93</v>
+      </c>
+      <c r="T16">
         <v>0.68</v>
       </c>
-      <c r="U16" s="41">
+      <c r="U16" s="2">
         <v>0.83</v>
       </c>
       <c r="V16" s="9">
@@ -2004,7 +1985,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="13">
@@ -2028,25 +2009,25 @@
       <c r="H17" s="8">
         <v>0.69</v>
       </c>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="P17" s="48" t="s">
+      <c r="P17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="Q17">
         <v>0.94</v>
       </c>
-      <c r="R17" s="41">
-        <v>0.93</v>
-      </c>
-      <c r="S17" s="40">
+      <c r="R17" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="S17">
         <v>0.94</v>
       </c>
-      <c r="T17" s="40">
+      <c r="T17">
         <v>0.73</v>
       </c>
-      <c r="U17" s="41">
+      <c r="U17" s="2">
         <v>0.75</v>
       </c>
       <c r="V17" s="9">
@@ -2054,7 +2035,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="20"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="11">
         <v>0.4</v>
       </c>
@@ -2076,25 +2057,25 @@
       <c r="H18" s="9">
         <v>0.71</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="P18" s="68" t="s">
+      <c r="P18" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18">
         <v>0.94</v>
       </c>
-      <c r="R18" s="41">
-        <v>0.93</v>
-      </c>
-      <c r="S18" s="50">
+      <c r="R18" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="S18">
         <v>0.94</v>
       </c>
-      <c r="T18" s="50">
+      <c r="T18">
         <v>0.73</v>
       </c>
-      <c r="U18" s="41">
+      <c r="U18" s="2">
         <v>0.74</v>
       </c>
       <c r="V18" s="9">
@@ -2102,28 +2083,28 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="20"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="11"/>
       <c r="H19" s="9"/>
-      <c r="O19" s="39" t="s">
+      <c r="O19" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="P19" s="68" t="s">
+      <c r="P19" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="74">
+      <c r="Q19" s="29">
         <v>0.94</v>
       </c>
-      <c r="R19" s="41">
-        <v>0.93</v>
-      </c>
-      <c r="S19" s="50">
+      <c r="R19" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="S19">
         <v>0.94</v>
       </c>
-      <c r="T19" s="50">
+      <c r="T19">
         <v>0.72</v>
       </c>
-      <c r="U19" s="41">
+      <c r="U19" s="2">
         <v>0.77</v>
       </c>
       <c r="V19" s="9">
@@ -2131,28 +2112,28 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="20"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="11"/>
       <c r="H20" s="9"/>
-      <c r="O20" s="39" t="s">
+      <c r="O20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="P20" s="49" t="s">
+      <c r="P20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="74">
+      <c r="Q20" s="29">
         <v>0.96</v>
       </c>
-      <c r="R20" s="41">
+      <c r="R20" s="2">
         <v>0.91</v>
       </c>
-      <c r="S20" s="50">
-        <v>0.93</v>
-      </c>
-      <c r="T20" s="50">
+      <c r="S20">
+        <v>0.93</v>
+      </c>
+      <c r="T20">
         <v>0.69</v>
       </c>
-      <c r="U20" s="41">
+      <c r="U20" s="2">
         <v>0.83</v>
       </c>
       <c r="V20" s="9">
@@ -2160,57 +2141,57 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="20"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="11"/>
       <c r="H21" s="9"/>
-      <c r="O21" s="58" t="s">
+      <c r="O21" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="P21" s="59" t="s">
+      <c r="P21" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="60">
+      <c r="Q21" s="37">
         <v>0.96</v>
       </c>
-      <c r="R21" s="61">
+      <c r="R21" s="38">
         <v>0.9</v>
       </c>
-      <c r="S21" s="60">
-        <v>0.93</v>
-      </c>
-      <c r="T21" s="60">
+      <c r="S21" s="37">
+        <v>0.93</v>
+      </c>
+      <c r="T21" s="37">
         <v>0.67</v>
       </c>
-      <c r="U21" s="61">
+      <c r="U21" s="38">
         <v>0.85</v>
       </c>
-      <c r="V21" s="62">
+      <c r="V21" s="39">
         <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="20"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="11"/>
       <c r="H22" s="9"/>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="P22" s="68" t="s">
+      <c r="P22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" s="74">
+      <c r="Q22" s="29">
         <v>0.97</v>
       </c>
-      <c r="R22" s="41">
+      <c r="R22" s="2">
         <v>0.88</v>
       </c>
-      <c r="S22" s="50">
+      <c r="S22">
         <v>0.92</v>
       </c>
-      <c r="T22" s="50">
+      <c r="T22">
         <v>0.65</v>
       </c>
-      <c r="U22" s="41">
+      <c r="U22" s="2">
         <v>0.88</v>
       </c>
       <c r="V22" s="9">
@@ -2218,7 +2199,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="20"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="14">
         <v>0.5</v>
       </c>
@@ -2240,25 +2221,25 @@
       <c r="H23" s="9">
         <v>0.72</v>
       </c>
-      <c r="O23" s="42" t="s">
+      <c r="O23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="68" t="s">
+      <c r="P23" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="Q23" s="52">
+      <c r="Q23" s="29">
         <v>0.96</v>
       </c>
-      <c r="R23" s="41">
+      <c r="R23" s="2">
         <v>0.89</v>
       </c>
-      <c r="S23" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="T23" s="40">
+      <c r="S23">
+        <v>0.93</v>
+      </c>
+      <c r="T23">
         <v>0.65</v>
       </c>
-      <c r="U23" s="41">
+      <c r="U23" s="2">
         <v>0.86</v>
       </c>
       <c r="V23" s="9">
@@ -2266,92 +2247,92 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="20"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="14"/>
       <c r="D24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="9"/>
-      <c r="O24" s="53" t="s">
+      <c r="O24" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="P24" s="75" t="s">
+      <c r="P24" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="63">
+      <c r="Q24" s="40">
         <v>0.97</v>
       </c>
-      <c r="R24" s="56">
+      <c r="R24" s="33">
         <v>0.88</v>
       </c>
-      <c r="S24" s="55">
+      <c r="S24" s="32">
         <v>0.92</v>
       </c>
-      <c r="T24" s="55">
+      <c r="T24" s="32">
         <v>0.64</v>
       </c>
-      <c r="U24" s="56">
+      <c r="U24" s="33">
         <v>0.87</v>
       </c>
-      <c r="V24" s="57">
+      <c r="V24" s="34">
         <v>0.74</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="20"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="14"/>
       <c r="D25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="9"/>
-      <c r="O25" s="53" t="s">
+      <c r="O25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="P25" s="54" t="s">
+      <c r="P25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="63">
+      <c r="Q25" s="40">
         <v>0.96</v>
       </c>
-      <c r="R25" s="56">
+      <c r="R25" s="33">
         <v>0.88</v>
       </c>
-      <c r="S25" s="55">
+      <c r="S25" s="32">
         <v>0.92</v>
       </c>
-      <c r="T25" s="55">
+      <c r="T25" s="32">
         <v>0.63</v>
       </c>
-      <c r="U25" s="56">
+      <c r="U25" s="33">
         <v>0.87</v>
       </c>
-      <c r="V25" s="57">
+      <c r="V25" s="34">
         <v>0.73</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="20"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="14"/>
       <c r="D26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="9"/>
-      <c r="O26" s="42" t="s">
+      <c r="O26" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="P26" s="68" t="s">
+      <c r="P26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="Q26" s="52">
+      <c r="Q26" s="29">
         <v>0.95</v>
       </c>
-      <c r="R26" s="41">
+      <c r="R26" s="2">
         <v>0.91</v>
       </c>
-      <c r="S26" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="T26" s="40">
+      <c r="S26">
+        <v>0.93</v>
+      </c>
+      <c r="T26">
         <v>0.68</v>
       </c>
-      <c r="U26" s="41">
+      <c r="U26" s="2">
         <v>0.8</v>
       </c>
       <c r="V26" s="9">
@@ -2359,30 +2340,30 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="20"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="14"/>
       <c r="D27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="9"/>
-      <c r="O27" s="42" t="s">
+      <c r="O27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="68" t="s">
+      <c r="P27" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="Q27" s="52">
+      <c r="Q27" s="29">
         <v>0.95</v>
       </c>
-      <c r="R27" s="41">
+      <c r="R27" s="2">
         <v>0.9</v>
       </c>
-      <c r="S27" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="T27" s="40">
+      <c r="S27">
+        <v>0.93</v>
+      </c>
+      <c r="T27">
         <v>0.67</v>
       </c>
-      <c r="U27" s="41">
+      <c r="U27" s="2">
         <v>0.82</v>
       </c>
       <c r="V27" s="9">
@@ -2390,30 +2371,30 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A28" s="20"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="14"/>
       <c r="D28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="9"/>
-      <c r="O28" s="42" t="s">
+      <c r="O28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="44">
+      <c r="Q28" s="28"/>
+      <c r="R28" s="22">
         <v>0.89</v>
       </c>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="44">
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="22">
         <v>0.85</v>
       </c>
-      <c r="V28" s="45"/>
+      <c r="V28" s="23"/>
     </row>
     <row r="29" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="21"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="12">
         <v>0.6</v>
       </c>
@@ -2437,31 +2418,30 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="26"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="68"/>
     </row>
     <row r="31" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="29"/>
-      <c r="S31" s="40"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="71"/>
     </row>
     <row r="32" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
@@ -2505,7 +2485,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="11">
@@ -2529,24 +2509,24 @@
       <c r="H33" s="8">
         <v>0.75</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="33" t="s">
+      <c r="L33" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="33" t="s">
+      <c r="M33" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="36" t="s">
+      <c r="N33" s="63" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="20"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="11">
         <v>0.4</v>
       </c>
@@ -2568,14 +2548,14 @@
       <c r="H34" s="9">
         <v>0.75</v>
       </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="37"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="64"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="20"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="14">
         <v>0.5</v>
       </c>
@@ -2597,14 +2577,14 @@
       <c r="H35" s="9">
         <v>0.74</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="37"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="64"/>
     </row>
     <row r="36" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="21"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="12">
         <v>0.6</v>
       </c>
@@ -2626,14 +2606,14 @@
       <c r="H36" s="10">
         <v>0.71</v>
       </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="38"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="65"/>
     </row>
     <row r="37" spans="1:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="13">
@@ -2657,24 +2637,24 @@
       <c r="H37" s="8">
         <v>0.69</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="30" t="s">
+      <c r="K37" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="33" t="s">
+      <c r="L37" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="33" t="s">
+      <c r="M37" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="36" t="s">
+      <c r="N37" s="63" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="20"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="11">
         <v>0.4</v>
       </c>
@@ -2696,14 +2676,14 @@
       <c r="H38" s="9">
         <v>0.71</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="37"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="64"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="20"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="14">
         <v>0.5</v>
       </c>
@@ -2725,14 +2705,14 @@
       <c r="H39" s="9">
         <v>0.73</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="37"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="64"/>
     </row>
     <row r="40" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="21"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="12">
         <v>0.6</v>
       </c>
@@ -2754,14 +2734,14 @@
       <c r="H40" s="10">
         <v>0.75</v>
       </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="38"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="65"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="54" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="13">
@@ -2785,24 +2765,24 @@
       <c r="H41" s="8">
         <v>0.73</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="30" t="s">
+      <c r="K41" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="33" t="s">
+      <c r="L41" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="33" t="s">
+      <c r="M41" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="N41" s="36" t="s">
+      <c r="N41" s="63" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="20"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="11">
         <v>0.4</v>
       </c>
@@ -2824,14 +2804,14 @@
       <c r="H42" s="9">
         <v>0.74</v>
       </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="37"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="64"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="20"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="14">
         <v>0.5</v>
       </c>
@@ -2853,14 +2833,14 @@
       <c r="H43" s="9">
         <v>0.75</v>
       </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="37"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="64"/>
     </row>
     <row r="44" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="21"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="12">
         <v>0.6</v>
       </c>
@@ -2882,14 +2862,14 @@
       <c r="H44" s="10">
         <v>0.74</v>
       </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="38"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="65"/>
     </row>
     <row r="45" spans="1:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="13">
@@ -2913,16 +2893,16 @@
       <c r="H45" s="8">
         <v>0.72</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="36"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="63"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A46" s="20"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="11">
         <v>0.4</v>
       </c>
@@ -2944,14 +2924,14 @@
       <c r="H46" s="9">
         <v>0.73</v>
       </c>
-      <c r="J46" s="20"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="37"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="64"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="20"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="14">
         <v>0.5</v>
       </c>
@@ -2973,14 +2953,14 @@
       <c r="H47" s="9">
         <v>0.72</v>
       </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="37"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="64"/>
     </row>
     <row r="48" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="21"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="12">
         <v>0.6</v>
       </c>
@@ -3002,23 +2982,23 @@
       <c r="H48" s="10">
         <v>0.73</v>
       </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="38"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="65"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
     </row>
     <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="15" t="s">
@@ -3047,7 +3027,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="11">
@@ -3073,7 +3053,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="20"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="11">
         <v>0.4</v>
       </c>
@@ -3097,7 +3077,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="20"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="14">
         <v>0.5</v>
       </c>
@@ -3121,7 +3101,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="21"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="12">
         <v>0.6</v>
       </c>
@@ -3145,7 +3125,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="13">
@@ -3171,7 +3151,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" s="20"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="11">
         <v>0.4</v>
       </c>
@@ -3195,7 +3175,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" s="20"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="14">
         <v>0.5</v>
       </c>
@@ -3219,7 +3199,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="21"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="12">
         <v>0.6</v>
       </c>
@@ -3243,7 +3223,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="54" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="13">
@@ -3269,7 +3249,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="20"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="11">
         <v>0.4</v>
       </c>
@@ -3293,7 +3273,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" s="20"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="14">
         <v>0.5</v>
       </c>
@@ -3317,7 +3297,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="21"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="12">
         <v>0.6</v>
       </c>
@@ -3341,7 +3321,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="13">
@@ -3367,7 +3347,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A66" s="20"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="11">
         <v>0.4</v>
       </c>
@@ -3391,7 +3371,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="20"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="14">
         <v>0.5</v>
       </c>
@@ -3415,7 +3395,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="21"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="12">
         <v>0.6</v>
       </c>
@@ -3439,16 +3419,16 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
     </row>
     <row r="72" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="15" t="s">
@@ -3477,7 +3457,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B73" s="11">
@@ -3503,7 +3483,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A74" s="20"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="11">
         <v>0.4</v>
       </c>
@@ -3527,7 +3507,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A75" s="20"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="14">
         <v>0.5</v>
       </c>
@@ -3551,7 +3531,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="21"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="12">
         <v>0.6</v>
       </c>
@@ -3575,7 +3555,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="13">
@@ -3601,7 +3581,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A78" s="20"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="11">
         <v>0.4</v>
       </c>
@@ -3625,7 +3605,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A79" s="20"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="14">
         <v>0.5</v>
       </c>
@@ -3649,7 +3629,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="21"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="12">
         <v>0.6</v>
       </c>
@@ -3673,7 +3653,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="54" t="s">
         <v>3</v>
       </c>
       <c r="B81" s="13">
@@ -3699,7 +3679,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A82" s="20"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="11">
         <v>0.4</v>
       </c>
@@ -3723,7 +3703,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A83" s="20"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="14">
         <v>0.5</v>
       </c>
@@ -3747,7 +3727,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="21"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="12">
         <v>0.6</v>
       </c>
@@ -3771,7 +3751,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="13">
@@ -3797,7 +3777,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A86" s="20"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="11">
         <v>0.4</v>
       </c>
@@ -3821,7 +3801,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A87" s="20"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="14">
         <v>0.5</v>
       </c>
@@ -3845,7 +3825,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="21"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="12">
         <v>0.6</v>
       </c>
@@ -3869,16 +3849,16 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
     </row>
     <row r="92" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="15" t="s">
@@ -3907,7 +3887,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B93" s="11">
@@ -3933,7 +3913,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A94" s="20"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="11">
         <v>0.4</v>
       </c>
@@ -3957,7 +3937,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A95" s="20"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="14">
         <v>0.5</v>
       </c>
@@ -3981,7 +3961,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="21"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="12">
         <v>0.6</v>
       </c>
@@ -4005,7 +3985,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="13">
@@ -4031,7 +4011,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A98" s="20"/>
+      <c r="A98" s="55"/>
       <c r="B98" s="11">
         <v>0.4</v>
       </c>
@@ -4055,7 +4035,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A99" s="20"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="14">
         <v>0.5</v>
       </c>
@@ -4079,7 +4059,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="21"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="12">
         <v>0.6</v>
       </c>
@@ -4103,7 +4083,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="54" t="s">
         <v>3</v>
       </c>
       <c r="B101" s="13">
@@ -4129,7 +4109,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A102" s="20"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="11">
         <v>0.4</v>
       </c>
@@ -4153,7 +4133,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="20"/>
+      <c r="A103" s="55"/>
       <c r="B103" s="14">
         <v>0.5</v>
       </c>
@@ -4177,7 +4157,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="21"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="12">
         <v>0.6</v>
       </c>
@@ -4201,7 +4181,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="13">
@@ -4227,7 +4207,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="20"/>
+      <c r="A106" s="55"/>
       <c r="B106" s="11">
         <v>0.4</v>
       </c>
@@ -4251,7 +4231,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="20"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="14">
         <v>0.5</v>
       </c>
@@ -4275,7 +4255,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="21"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="12">
         <v>0.6</v>
       </c>
@@ -4299,16 +4279,16 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="53"/>
     </row>
     <row r="112" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="15" t="s">
@@ -4337,7 +4317,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B113" s="11">
@@ -4363,7 +4343,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A114" s="20"/>
+      <c r="A114" s="55"/>
       <c r="B114" s="11">
         <v>0.4</v>
       </c>
@@ -4387,7 +4367,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A115" s="20"/>
+      <c r="A115" s="55"/>
       <c r="B115" s="14">
         <v>0.5</v>
       </c>
@@ -4411,7 +4391,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="21"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="12">
         <v>0.6</v>
       </c>
@@ -4435,7 +4415,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B117" s="13">
@@ -4461,7 +4441,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A118" s="20"/>
+      <c r="A118" s="55"/>
       <c r="B118" s="11">
         <v>0.4</v>
       </c>
@@ -4485,7 +4465,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A119" s="20"/>
+      <c r="A119" s="55"/>
       <c r="B119" s="14">
         <v>0.5</v>
       </c>
@@ -4509,7 +4489,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="21"/>
+      <c r="A120" s="56"/>
       <c r="B120" s="12">
         <v>0.6</v>
       </c>
@@ -4533,7 +4513,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="54" t="s">
         <v>3</v>
       </c>
       <c r="B121" s="13">
@@ -4559,7 +4539,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A122" s="20"/>
+      <c r="A122" s="55"/>
       <c r="B122" s="11">
         <v>0.4</v>
       </c>
@@ -4583,7 +4563,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A123" s="20"/>
+      <c r="A123" s="55"/>
       <c r="B123" s="14">
         <v>0.5</v>
       </c>
@@ -4607,7 +4587,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="21"/>
+      <c r="A124" s="56"/>
       <c r="B124" s="12">
         <v>0.6</v>
       </c>
@@ -4631,7 +4611,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B125" s="13">
@@ -4657,7 +4637,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A126" s="20"/>
+      <c r="A126" s="55"/>
       <c r="B126" s="11">
         <v>0.4</v>
       </c>
@@ -4681,7 +4661,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A127" s="20"/>
+      <c r="A127" s="55"/>
       <c r="B127" s="14">
         <v>0.5</v>
       </c>
@@ -4705,7 +4685,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="21"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="12">
         <v>0.6</v>
       </c>
@@ -4729,16 +4709,16 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="53"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="53"/>
+      <c r="H131" s="53"/>
     </row>
     <row r="132" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="15" t="s">
@@ -4767,25 +4747,25 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="39" t="s">
+      <c r="A133" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B133" s="46">
+      <c r="B133" s="24">
         <v>0.5</v>
       </c>
-      <c r="C133" s="40">
+      <c r="C133">
         <v>0.95</v>
       </c>
-      <c r="D133" s="41">
+      <c r="D133" s="2">
         <v>0.9</v>
       </c>
-      <c r="E133" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="F133" s="40">
+      <c r="E133">
+        <v>0.93</v>
+      </c>
+      <c r="F133">
         <v>0.66</v>
       </c>
-      <c r="G133" s="41">
+      <c r="G133" s="2">
         <v>0.82</v>
       </c>
       <c r="H133" s="9">
@@ -4793,25 +4773,25 @@
       </c>
     </row>
     <row r="134" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="39" t="s">
+      <c r="A134" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B134" s="46">
+      <c r="B134" s="24">
         <v>0.5</v>
       </c>
-      <c r="C134" s="40">
+      <c r="C134">
         <v>0.97</v>
       </c>
-      <c r="D134" s="41">
+      <c r="D134" s="2">
         <v>0.86</v>
       </c>
-      <c r="E134" s="40">
+      <c r="E134">
         <v>0.91</v>
       </c>
-      <c r="F134" s="40">
+      <c r="F134">
         <v>0.61</v>
       </c>
-      <c r="G134" s="41">
+      <c r="G134" s="2">
         <v>0.91</v>
       </c>
       <c r="H134" s="9">
@@ -4819,25 +4799,25 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="46">
+      <c r="B135" s="24">
         <v>0.5</v>
       </c>
-      <c r="C135" s="40">
+      <c r="C135">
         <v>0.96</v>
       </c>
-      <c r="D135" s="41">
+      <c r="D135" s="2">
         <v>0.89</v>
       </c>
-      <c r="E135" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="F135" s="40">
+      <c r="E135">
+        <v>0.93</v>
+      </c>
+      <c r="F135">
         <v>0.66</v>
       </c>
-      <c r="G135" s="41">
+      <c r="G135" s="2">
         <v>0.85</v>
       </c>
       <c r="H135" s="9">
@@ -4845,33 +4825,69 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="47">
+      <c r="B136" s="25">
         <v>0.5</v>
       </c>
-      <c r="C136" s="43">
+      <c r="C136" s="21">
         <v>0.95</v>
       </c>
-      <c r="D136" s="44">
+      <c r="D136" s="22">
         <v>0.9</v>
       </c>
-      <c r="E136" s="43">
-        <v>0.93</v>
-      </c>
-      <c r="F136" s="43">
+      <c r="E136" s="21">
+        <v>0.93</v>
+      </c>
+      <c r="F136" s="21">
         <v>0.66</v>
       </c>
-      <c r="G136" s="44">
+      <c r="G136" s="22">
         <v>0.82</v>
       </c>
-      <c r="H136" s="45">
+      <c r="H136" s="23">
         <v>0.74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A91:H91"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="L37:L40"/>
+    <mergeCell ref="M37:M40"/>
+    <mergeCell ref="N37:N40"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="M33:M36"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="J30:N31"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="M45:M48"/>
+    <mergeCell ref="N45:N48"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="N41:N44"/>
+    <mergeCell ref="J37:J40"/>
+    <mergeCell ref="K37:K40"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="A131:H131"/>
     <mergeCell ref="A53:A56"/>
@@ -4888,42 +4904,6 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="K33:K36"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="M33:M36"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="J30:N31"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="M45:M48"/>
-    <mergeCell ref="N45:N48"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="N41:N44"/>
-    <mergeCell ref="J37:J40"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="L37:L40"/>
-    <mergeCell ref="M37:M40"/>
-    <mergeCell ref="N37:N40"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A91:H91"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A111:H111"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
